--- a/Notesdomain.xlsx
+++ b/Notesdomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\repos\slrdevopsmde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33873412-0A43-4ED8-A871-76ACCB2857B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD5357B-E692-4724-B522-9CDE65E83272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E1BA001-00A7-4454-9522-64416B43C7B2}"/>
   </bookViews>
@@ -693,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
